--- a/2.Plan_File/기획서 파일/시스템 기획서 Ver.0.0.1.xlsx
+++ b/2.Plan_File/기획서 파일/시스템 기획서 Ver.0.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeongjin-yeong/Desktop/JungJinYeong/PatForestCafe_GitHub/2.Plan_File/기획서 파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\PatForestCafe_Git_Hub\2.Plan_File\기획서 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70641656-D734-F54D-BF88-DEAC8D7C3463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C0D004-D148-4C6B-AA6C-E8E20B0AC540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="500" windowWidth="28300" windowHeight="15940" activeTab="3" xr2:uid="{44B9EA1A-37DD-BE46-8B90-D2D64A6893AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{44B9EA1A-37DD-BE46-8B90-D2D64A6893AA}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -252,9 +252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>패키지상점</t>
-  </si>
-  <si>
     <t>노란 블럭은 목록을 선택할 수 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -271,17 +268,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>레시피</t>
+    <t>인테리어</t>
   </si>
   <si>
-    <t>인테리어</t>
+    <t>캣코인상점</t>
+  </si>
+  <si>
+    <t>재고</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 기능 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 게임 첫 실행 시 발생할 게임회사 로고입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,7 +488,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,17 +570,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1728,16 +1749,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4340</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17040</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>952499</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1752,8 +1773,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3966740" y="1155700"/>
-          <a:ext cx="2853159" cy="4800600"/>
+          <a:off x="156740" y="6502400"/>
+          <a:ext cx="2967460" cy="4533900"/>
           <a:chOff x="245640" y="1181100"/>
           <a:chExt cx="2694197" cy="4724400"/>
         </a:xfrm>
@@ -2101,16 +2122,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2124,9 +2145,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3263900" y="3162300"/>
-          <a:ext cx="495300" cy="571500"/>
+        <a:xfrm rot="5400000">
+          <a:off x="1384300" y="5664200"/>
+          <a:ext cx="495300" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2172,23 +2193,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4340</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17040</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>952499</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="그룹 13">
+        <xdr:cNvPr id="7" name="그룹 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E894747-068A-8C48-9525-8E57C9973B4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB4D4DE-08D8-4672-843B-BEC7BB7D8DBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,71 +2217,155 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7776740" y="1155700"/>
-          <a:ext cx="2853159" cy="4800600"/>
-          <a:chOff x="245640" y="1181100"/>
-          <a:chExt cx="2694197" cy="4724400"/>
+          <a:off x="156740" y="11887200"/>
+          <a:ext cx="2967460" cy="4533900"/>
+          <a:chOff x="8081540" y="1092200"/>
+          <a:chExt cx="2967460" cy="4533900"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="그림 14">
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="14" name="그룹 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51B6059-890C-CF4E-AFF0-986154824E9F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E894747-068A-8C48-9525-8E57C9973B4D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="245640" y="1181100"/>
-            <a:ext cx="2694197" cy="4724400"/>
+            <a:off x="8081540" y="1092200"/>
+            <a:ext cx="2967460" cy="4533900"/>
+            <a:chOff x="245640" y="1181100"/>
+            <a:chExt cx="2694197" cy="4724400"/>
           </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="직사각형 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69DC4CB-84BF-9B49-887E-D20F9921DF25}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="613786" y="2136445"/>
-            <a:ext cx="2104014" cy="1200080"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="1" cap="none" spc="0">
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="그림 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51B6059-890C-CF4E-AFF0-986154824E9F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="245640" y="1181100"/>
+              <a:ext cx="2694197" cy="4724400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="직사각형 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69DC4CB-84BF-9B49-887E-D20F9921DF25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="613786" y="2136445"/>
+              <a:ext cx="2104014" cy="1200080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="1" cap="none" spc="0">
+                  <a:ln w="10160">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:prstDash val="solid"/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="30000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>Pet</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="1" cap="none" spc="0" baseline="0">
+                  <a:ln w="10160">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:prstDash val="solid"/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="30000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t> Forest</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="1" cap="none" spc="0" baseline="0">
+                  <a:ln w="10160">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:prstDash val="solid"/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="30000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a:rPr>
+                <a:t>Cafe</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ko-KR" sz="3600" b="1" cap="none" spc="0">
                 <a:ln w="10160">
                   <a:solidFill>
                     <a:schemeClr val="accent6"/>
@@ -2277,14 +2382,44 @@
                     </a:srgbClr>
                   </a:outerShdw>
                 </a:effectLst>
-              </a:rPr>
-              <a:t>Pet</a:t>
-            </a:r>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="직사각형 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FD57F3-C8D6-1742-8DFB-33DE9BB1368E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8233940" y="4749800"/>
+            <a:ext cx="2751560" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="1" cap="none" spc="0" baseline="0">
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1" cap="none" spc="0">
                 <a:ln w="10160">
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="accent2"/>
                   </a:solidFill>
                   <a:prstDash val="solid"/>
                 </a:ln>
@@ -2299,16 +2434,13 @@
                   </a:outerShdw>
                 </a:effectLst>
               </a:rPr>
-              <a:t> Forest</a:t>
+              <a:t>&lt;&lt;Start!</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="1" cap="none" spc="0" baseline="0">
+              <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1" cap="none" spc="0" baseline="0">
                 <a:ln w="10160">
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="accent2"/>
                   </a:solidFill>
                   <a:prstDash val="solid"/>
                 </a:ln>
@@ -2323,12 +2455,12 @@
                   </a:outerShdw>
                 </a:effectLst>
               </a:rPr>
-              <a:t>Cafe</a:t>
+              <a:t> &gt;&gt;</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="3600" b="1" cap="none" spc="0">
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2400" b="1" cap="none" spc="0">
               <a:ln w="10160">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="solid"/>
               </a:ln>
@@ -2351,138 +2483,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>169440</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="직사각형 17">
+        <xdr:cNvPr id="16" name="오른쪽 화살표[R] 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FD57F3-C8D6-1742-8DFB-33DE9BB1368E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99B12884-8BCB-412A-86A1-4F0694C02323}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7941840" y="5016500"/>
-          <a:ext cx="2675360" cy="736600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1" cap="none" spc="0">
-              <a:ln w="10160">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="30000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>&lt;&lt;Start!</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2400" b="1" cap="none" spc="0" baseline="0">
-              <a:ln w="10160">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="30000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t> &gt;&gt;</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2400" b="1" cap="none" spc="0">
-            <a:ln w="10160">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="38100" dist="22860" dir="5400000" algn="tl" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="30000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="오른쪽 화살표[R] 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B69C51-9E1B-C741-843F-A79229049A76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7048500" y="3162300"/>
-          <a:ext cx="495300" cy="571500"/>
+        <a:xfrm rot="5400000">
+          <a:off x="1384300" y="11049000"/>
+          <a:ext cx="495300" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2808,16 +2834,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:colOff>460375</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>207434</xdr:rowOff>
+      <xdr:rowOff>121709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2840,8 +2866,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="139700" y="774700"/>
-          <a:ext cx="3302000" cy="5833534"/>
+          <a:off x="168275" y="660400"/>
+          <a:ext cx="3406775" cy="5595409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3301,25 +3327,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16549B9-C1DB-9640-A48F-9B141FA379A8}">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" style="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" style="9" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" style="12" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" style="9" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="9" customWidth="1"/>
-    <col min="20" max="16384" width="10.7109375" style="9"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
+    <col min="10" max="13" width="10.6640625" style="1"/>
+    <col min="14" max="14" width="11.5546875"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" style="9" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="10.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3337,7 +3367,7 @@
       <c r="O1" s="9"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3356,7 +3386,7 @@
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -3377,7 +3407,7 @@
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3398,7 +3428,7 @@
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -3419,7 +3449,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3438,7 +3468,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -3455,7 +3485,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -3475,7 +3505,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3498,7 +3528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3521,7 +3551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3544,7 +3574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3567,7 +3597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3590,7 +3620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3613,13 +3643,13 @@
         <v>48</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
       <c r="V14" s="17"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3632,7 +3662,7 @@
         <v>6</v>
       </c>
       <c r="J15" s="25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
@@ -3640,16 +3670,16 @@
       <c r="N15" s="25"/>
       <c r="O15" s="14" t="str">
         <f>IF(J15="제작",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]제작! A1","제작 이동"),IF(J15="레시피",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]레시피! A1","레시피 이동"),IF(J15="재고",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]재고! A1","재고 이동"),"-")))</f>
-        <v>레시피 이동</v>
+        <v>재고 이동</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="20"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3672,7 +3702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="6" t="s">
         <v>0</v>
@@ -3689,7 +3719,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -3700,7 +3730,7 @@
         <v>인테리어 이동</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="6" t="s">
         <v>10</v>
@@ -3717,7 +3747,7 @@
         <v>9</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
@@ -3725,10 +3755,10 @@
       <c r="N18" s="25"/>
       <c r="O18" s="14" t="str">
         <f>IF(J18="패키지상점",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]패키지상점! A1","패키지 상점 이동"),IF(J18="캣코인상점",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]캣코인상점! A1","캣코인 상점 이동"),"-"))</f>
-        <v>패키지 상점 이동</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>캣코인 상점 이동</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
         <v>2</v>
@@ -3755,7 +3785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3778,7 +3808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="24" t="s">
         <v>12</v>
@@ -3793,7 +3823,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
@@ -3803,7 +3833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -3832,7 +3862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
         <v>6</v>
@@ -3861,7 +3891,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -3884,7 +3914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3901,7 +3931,7 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3918,7 +3948,7 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3935,7 +3965,7 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -3952,7 +3982,7 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3969,7 +3999,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -3986,7 +4016,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -4003,7 +4033,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -4020,7 +4050,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -4037,7 +4067,7 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -4054,7 +4084,7 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -4071,7 +4101,7 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -4088,7 +4118,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -4105,7 +4135,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -4122,7 +4152,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -4139,7 +4169,7 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -4156,7 +4186,7 @@
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -4173,7 +4203,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -4190,7 +4220,7 @@
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -4207,7 +4237,7 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -4224,7 +4254,7 @@
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -4241,7 +4271,7 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -4258,7 +4288,7 @@
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -4275,7 +4305,7 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -4292,7 +4322,7 @@
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -4309,7 +4339,7 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -4326,7 +4356,7 @@
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -4343,7 +4373,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -4360,7 +4390,7 @@
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -4377,7 +4407,7 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -4394,7 +4424,7 @@
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -4411,7 +4441,7 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -4428,7 +4458,7 @@
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -4445,7 +4475,7 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -4462,7 +4492,7 @@
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4479,7 +4509,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4496,7 +4526,7 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -4513,7 +4543,7 @@
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -4530,7 +4560,7 @@
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -4547,7 +4577,7 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -4564,7 +4594,7 @@
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -4581,7 +4611,7 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -4598,7 +4628,7 @@
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -4615,7 +4645,7 @@
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -4632,7 +4662,7 @@
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -4649,7 +4679,7 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -4666,7 +4696,7 @@
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -4683,7 +4713,7 @@
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -4700,7 +4730,7 @@
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -4717,7 +4747,7 @@
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -4734,7 +4764,7 @@
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -4751,7 +4781,7 @@
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -4768,7 +4798,7 @@
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -4785,7 +4815,7 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -4802,7 +4832,7 @@
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -4819,7 +4849,7 @@
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -4836,7 +4866,7 @@
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -4853,7 +4883,7 @@
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -4870,7 +4900,7 @@
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -4887,7 +4917,7 @@
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -4904,7 +4934,7 @@
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4921,7 +4951,7 @@
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -4938,7 +4968,7 @@
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -4955,7 +4985,7 @@
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -4972,7 +5002,7 @@
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -4989,7 +5019,7 @@
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -5006,7 +5036,7 @@
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -5023,7 +5053,7 @@
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -5040,7 +5070,7 @@
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -5057,7 +5087,7 @@
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -5074,7 +5104,7 @@
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -5091,7 +5121,7 @@
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -5108,7 +5138,7 @@
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -5125,7 +5155,7 @@
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -5142,7 +5172,7 @@
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -5159,7 +5189,7 @@
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -5176,7 +5206,7 @@
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -5193,7 +5223,7 @@
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -5210,7 +5240,7 @@
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -5227,7 +5257,7 @@
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -5244,7 +5274,7 @@
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -5334,16 +5364,16 @@
   </sheetPr>
   <dimension ref="B1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" t="s">
@@ -5353,11 +5383,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5378,14 +5408,16 @@
   </sheetPr>
   <dimension ref="B1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" t="s">
@@ -5395,11 +5427,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5420,24 +5452,24 @@
   </sheetPr>
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5458,22 +5490,24 @@
   </sheetPr>
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5494,24 +5528,24 @@
   </sheetPr>
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5529,24 +5563,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCD9A88-070C-734C-A3C8-CDC831914F9F}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5564,24 +5598,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80562103-B500-C847-B5CD-DEE1D5838F3E}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5599,24 +5633,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A266BC-E39D-F440-9908-C8C02ED3E7A8}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5634,24 +5668,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637EE6B0-4B51-C345-8547-BC2E68C230E7}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C3"/>
+    <sheetView view="pageLayout" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5661,8 +5695,8 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5670,24 +5704,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D390D0-D8C1-294C-9BB2-EAC3A5922C00}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C3"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5705,189 +5739,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9C742B-4CE4-CC41-BCDB-1191AC05BD23}">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5905,22 +5939,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5A8CE1-DBD8-0E42-BA2F-855DA13D13F7}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5938,24 +5974,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17CAE81-87D5-AF49-9625-D78540E495D9}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -5971,293 +6007,599 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57EF169-8D0A-EF43-82D0-010E2BAFF741}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="9" customFormat="1">
+    <row r="1" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:12" s="9" customFormat="1">
+    <row r="2" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:12" s="9" customFormat="1">
+    <row r="3" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="2:12" s="9" customFormat="1">
+    <row r="4" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D4" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="9" customFormat="1">
+    <row r="5" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="F6" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="31"/>
+    </row>
+    <row r="7" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="31"/>
+    </row>
+    <row r="11" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="31"/>
+    </row>
+    <row r="13" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="31"/>
+    </row>
+    <row r="18" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="31"/>
+    </row>
+    <row r="19" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="31"/>
+    </row>
+    <row r="20" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="31"/>
+    </row>
+    <row r="22" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="31"/>
+    </row>
+    <row r="23" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="31"/>
+    </row>
+    <row r="24" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="J5" s="17" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="2:12" s="9" customFormat="1">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-    </row>
-    <row r="7" spans="2:12" s="9" customFormat="1">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-    </row>
-    <row r="8" spans="2:12" s="9" customFormat="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="2:12" s="9" customFormat="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-    </row>
-    <row r="10" spans="2:12" s="9" customFormat="1">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="2:12" s="9" customFormat="1">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="2:12" s="9" customFormat="1">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="2:12" s="9" customFormat="1">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="2:12" s="9" customFormat="1">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="2:12" s="9" customFormat="1">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="2:12" s="9" customFormat="1">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="2:12" s="9" customFormat="1">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="2:12" s="9" customFormat="1">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="2:12" s="9" customFormat="1">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="20" spans="2:12" s="9" customFormat="1">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-    </row>
-    <row r="21" spans="2:12" s="9" customFormat="1">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-    </row>
-    <row r="22" spans="2:12" s="9" customFormat="1">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-    </row>
-    <row r="23" spans="2:12" s="9" customFormat="1">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-    </row>
-    <row r="24" spans="2:12" s="9" customFormat="1">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-    </row>
-    <row r="25" spans="2:12" s="9" customFormat="1">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-    </row>
-    <row r="26" spans="2:12" s="9" customFormat="1">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L26"/>
+    <mergeCell ref="B31:D51"/>
+    <mergeCell ref="B56:D76"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B1:C3"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F6:H26"/>
     <mergeCell ref="B6:D26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6265,24 +6607,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770D5D26-E895-5E4B-923A-201331A21627}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -6300,22 +6642,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A88DE-5558-C341-941A-52D51B966040}">
   <dimension ref="B1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -6336,16 +6680,16 @@
   </sheetPr>
   <dimension ref="B1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" t="s">
@@ -6355,11 +6699,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>
@@ -6380,14 +6724,16 @@
   </sheetPr>
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" t="s">
@@ -6397,26 +6743,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="E2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="E3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G9" s="9" t="s">
         <v>39</v>
       </c>
@@ -6438,16 +6784,16 @@
   </sheetPr>
   <dimension ref="B1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" t="s">
@@ -6457,11 +6803,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
     </row>

--- a/2.Plan_File/기획서 파일/시스템 기획서 Ver.0.0.1.xlsx
+++ b/2.Plan_File/기획서 파일/시스템 기획서 Ver.0.0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsdu\Desktop\PatForestCafe_Git_Hub\2.Plan_File\기획서 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C0D004-D148-4C6B-AA6C-E8E20B0AC540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C33E717-7D45-4ABA-A355-FE3915242F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="3" xr2:uid="{44B9EA1A-37DD-BE46-8B90-D2D64A6893AA}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -288,12 +288,28 @@
     <t>1. 게임 첫 실행 시 발생할 게임회사 로고입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>예외 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 효과에 대한 자세한 연출은 추후에 기획할 예정입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 페이드 인/아웃 효과를 제공합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 로고 발생 후 "인트로_구글 시안"으로 넘어갑니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,6 +372,15 @@
       <color theme="4"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -488,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,10 +562,22 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -564,9 +601,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,14 +616,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3376,15 +3404,15 @@
       <c r="F2" s="10"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -3398,14 +3426,14 @@
       <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
@@ -3419,14 +3447,14 @@
       <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
@@ -3437,17 +3465,17 @@
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
@@ -3458,15 +3486,15 @@
       <c r="F6" s="10"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="22" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -3494,15 +3522,15 @@
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="11"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -3517,13 +3545,13 @@
       <c r="I9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="6" t="s">
         <v>28</v>
       </c>
@@ -3540,13 +3568,13 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="7" t="s">
         <v>48</v>
       </c>
@@ -3563,13 +3591,13 @@
       <c r="I11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="7" t="s">
         <v>48</v>
       </c>
@@ -3586,13 +3614,13 @@
       <c r="I12" s="5">
         <v>3</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="7" t="s">
         <v>48</v>
       </c>
@@ -3609,13 +3637,13 @@
       <c r="I13" s="5">
         <v>4</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
@@ -3632,22 +3660,22 @@
       <c r="I14" s="5">
         <v>5</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="17" t="s">
+      <c r="S14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -3661,23 +3689,23 @@
       <c r="I15" s="5">
         <v>6</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="14" t="str">
         <f>IF(J15="제작",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]제작! A1","제작 이동"),IF(J15="레시피",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]레시피! A1","레시피 이동"),IF(J15="재고",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]재고! A1","재고 이동"),"-")))</f>
         <v>재고 이동</v>
       </c>
       <c r="S15" s="15"/>
-      <c r="T15" s="18" t="s">
+      <c r="T15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="19"/>
-      <c r="V15" s="20"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -3691,13 +3719,13 @@
       <c r="I16" s="5">
         <v>7</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
       <c r="O16" s="7" t="s">
         <v>48</v>
       </c>
@@ -3707,24 +3735,24 @@
       <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="5">
         <v>8</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="14" t="str">
         <f>IF(J17="인테리어",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]인테리어! A1","인테리어 이동"),IF(J17="가공섬계약",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]가공섬계약! A1","가공섬 계약 이동"),"-"))</f>
         <v>인테리어 이동</v>
@@ -3735,24 +3763,24 @@
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="5">
         <v>9</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="14" t="str">
         <f>IF(J18="패키지상점",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]패키지상점! A1","패키지 상점 이동"),IF(J18="캣코인상점",HYPERLINK("[시스템 기획서 Ver.0.0.1.xlsx]캣코인상점! A1","캣코인 상점 이동"),"-"))</f>
         <v>캣코인 상점 이동</v>
@@ -3763,24 +3791,24 @@
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="5">
         <v>10</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
       <c r="O19" s="7" t="s">
         <v>48</v>
       </c>
@@ -3797,38 +3825,38 @@
       <c r="I20" s="5">
         <v>11</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
       <c r="O20" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="5">
         <v>12</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
       <c r="O21" s="7" t="s">
         <v>48</v>
       </c>
@@ -3841,23 +3869,23 @@
       <c r="C22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="5">
         <v>13</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
       <c r="O22" s="7" t="s">
         <v>48</v>
       </c>
@@ -3870,23 +3898,23 @@
       <c r="C23" s="4">
         <v>44590</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="5">
         <v>14</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
       <c r="O23" s="7" t="s">
         <v>48</v>
       </c>
@@ -3895,21 +3923,21 @@
       <c r="A24" s="9"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="5">
         <v>15</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="7" t="s">
         <v>48</v>
       </c>
@@ -5293,6 +5321,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="I8:O8"/>
     <mergeCell ref="J22:N22"/>
     <mergeCell ref="J23:N23"/>
     <mergeCell ref="J24:N24"/>
@@ -5309,22 +5353,6 @@
     <mergeCell ref="J19:N19"/>
     <mergeCell ref="J20:N20"/>
     <mergeCell ref="J21:N21"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="J6:O6"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="I8:O8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -5374,8 +5402,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" t="s">
         <v>40</v>
       </c>
@@ -5384,12 +5412,12 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5418,8 +5446,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" t="s">
         <v>40</v>
       </c>
@@ -5428,12 +5456,12 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5462,16 +5490,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5500,16 +5528,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5538,16 +5566,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5573,16 +5601,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5608,16 +5636,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5643,16 +5671,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5678,16 +5706,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5714,16 +5742,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5750,178 +5778,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5949,16 +5977,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5984,16 +6012,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6010,7 +6038,7 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -6020,16 +6048,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D4" s="9" t="s">
@@ -6037,302 +6065,315 @@
       </c>
     </row>
     <row r="5" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="F5" s="34" t="s">
         <v>57</v>
       </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="F6" s="33" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="F6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="31"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="F7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="31"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="31"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="31"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="31"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="31"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="F16" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="31"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="31"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="31"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="31"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="16"/>
     </row>
     <row r="23" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="31"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="16"/>
     </row>
     <row r="24" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="31"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="31"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="2:13" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="31"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
@@ -6345,116 +6386,116 @@
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
       <c r="F51" t="s">
         <v>56</v>
       </c>
@@ -6475,119 +6516,121 @@
       <c r="D54" s="9"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="F16:L16"/>
     <mergeCell ref="B31:D51"/>
     <mergeCell ref="B56:D76"/>
     <mergeCell ref="B55:D55"/>
@@ -6617,16 +6660,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6652,16 +6695,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6690,8 +6733,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" t="s">
         <v>40</v>
       </c>
@@ -6700,12 +6743,12 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6734,8 +6777,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" t="s">
         <v>40</v>
       </c>
@@ -6744,15 +6787,15 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="E2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="E3" t="s">
         <v>45</v>
       </c>
@@ -6794,8 +6837,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" t="s">
         <v>40</v>
       </c>
@@ -6804,12 +6847,12 @@
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
